--- a/BalanceSheet/GILD_bal.xlsx
+++ b/BalanceSheet/GILD_bal.xlsx
@@ -4800,10 +4800,8 @@
           <t>Net Debt</t>
         </is>
       </c>
-      <c r="B35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B35" s="0" t="n">
+        <v>-6245000000.0</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>23856000000.0</v>
